--- a/medicine/Handicap/Aaltra/Aaltra.xlsx
+++ b/medicine/Handicap/Aaltra/Aaltra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aaltra est un film franco-belge de Benoît Delépine et Gustave Kervern sorti en 2004.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un agriculteur et un cadre, qui sont voisins, se haïssent profondément. Un jour, leur haine mutuelle les pousse à se battre. Une benne agricole leur tombe alors dessus accidentellement. Le diagnostic est là : ils ne retrouveront plus l'usage de leurs jambes. Ils décident finalement de partir ensemble pour la Finlande, pays d'origine de l'entreprise Aaltra qui a fabriqué la benne agricole, afin de réclamer des dommages et intérêts, ceci malgré la haine qui les oppose. Un long périple en chaise roulante commence alors...
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre : Aaltra
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Benoît Delépine : l'employé
@@ -680,16 +698,87 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
-Récompenses
-Festival du film de Londres 2004 : Prix FIPRESCI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aaltra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aaltra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival du film de Londres 2004 : Prix FIPRESCI
 Festival international du film de Transylvanie 2004 : Prix du public de la compétition officielle
 Festival international du film fantastique de Puchon 2004 : meilleur acteur pour Benoît Delépine et Gustave Kervern
-Prix Joseph Plateau 2005 : meilleur acteur pour Benoît Poelvoorde (également pour sa performance dans Podium)
-Nominations et sélections
-Festival international du film de Rotterdam 2004 : en compétition pour le Tiger Award
+Prix Joseph Plateau 2005 : meilleur acteur pour Benoît Poelvoorde (également pour sa performance dans Podium)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aaltra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aaltra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Festival international du film de Rotterdam 2004 : en compétition pour le Tiger Award
 Festival international du film de Copenhague 2004 : en compétition pour le Cygne d'or
 Festival du film Nuits noires de Tallinn 2004 : en compétition pour le Grand Prix
 Festival international du film de Chicago 2004 : en compétition pour le Gold Hugo dans la sélection des nouveaux réalisateurs
